--- a/spreadsheet/macrofree/azure_arc_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.es.xlsx
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda alinearse con un startegy de etiquetado de Azure existente o crearlo. Las etiquetas de recursos le permiten localizarlo rápidamente, automatizar tareas operativas y más. </t>
+          <t xml:space="preserve">Se recomienda alinearse con una estrategia de etiquetado de Azure existente o crearla. Las etiquetas de recursos le permiten localizarlo rápidamente, automatizar tareas operativas y más. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Defina reglas RBAC para los servidores / grupos de recursos según sea necesario para la administración de servidores, el rol 'Administrador de recursos de máquina conectada de Azure' o 'Administrador de recursos de servidor híbrido' sería suficiente para la administración de los recursos de servidores habilitados para Azure Arc en Azure</t>
+          <t>Defina reglas RBAC para los servidores o grupos de recursos según sea necesario para la administración de servidores, el rol 'Administrador de recursos de máquina conectada de Azure' o 'Administrador de recursos de servidor híbrido' sería suficiente para la administración de los recursos de servidores habilitados para Azure Arc en Azure.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Utilice el principio de menos privilegios</t>
+          <t>Utilizar el principio de los menos privilegiados</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de agregar solo los derechos a los usuarios o grupos necesarios para su rol</t>
+          <t>Asegúrese de agregar solo los derechos a los usuarios o grupos necesarios para desempeñar su función</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Cuántos Service Pricipals se necesitan para incorporar servidores habilitados para Arc en Azure</t>
+          <t>Cuántas entidades de servicio se necesitan para incorporar servidores habilitados para Arc en Azure</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Definir una estrategia para las actualizaciones de agentes</t>
+          <t>Definir una estrategia para las actualizaciones del agente</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Monitor para la supervisión operativa y de cumplimiento</t>
+          <t>Uso de Azure Monitor para el cumplimiento y la supervisión operativa</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use Update Management en Azure Automation o la nueva funcionalidad del Update Management Center (versión preliminar) para garantizar la administración de actualizaciones de los servidores</t>
+          <t>Use Update Management en Automatización de Azure o la nueva funcionalidad del Centro de administración de actualizaciones (versión preliminar) para garantizar la administración de actualizaciones de los servidores</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>El agente de máquina conectada se comunicará de forma predeterminada con los servicios de Azure a través de la conectividad pública de Interet mediante HTTPS (puerto TCP 443)</t>
+          <t>El agente de máquina conectada se comunicará de forma predeterminada con los servicios de Azure a través de la conectividad pública a Internet mediante HTTPS (puerto TCP 443)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Use la herramienta de automatización disponible para el sistema en cuestión para actualizar de forma contingente los puntos de conexión de Azure</t>
+          <t>Use la herramienta de automatización disponible para el sistema en cuestión para actualizar periódicamente los puntos de conexión de Azure</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Incluir extensiones de comunicación para servidores habilitados para Azure Arc en el diseño (firewall/proxy/vínculo privado)</t>
+          <t>Incluir la comunicación para las extensiones de servidores habilitados para Azure Arc en el diseño (firewall/proxy/vínculo privado)</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Todas las extensiones (como el análisis de registros, etc.) tienen requisitos de red separados, asegúrese de incluir todos en el diseño de la red.</t>
+          <t>Todas las extensiones (como el análisis de registros, etc.) tienen requisitos de red separados, asegúrese de incluir todas en el diseño de la red.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Cosider utiliza el seguimiento de cambios para el seguimiento de los cambios realizados en los servidores</t>
+          <t>Considere la posibilidad de utilizar el seguimiento de cambios para realizar un seguimiento de los cambios realizados en los servidores</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>

--- a/spreadsheet/macrofree/azure_arc_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1104,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Se requieren uno o más grupos de recursos para incorporar servidores en Azure</t>
+          <t>Se requieren uno o varios grupos de recursos para incorporar servidores a Azure</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las limitaciones de objetos de Azure Active Directory</t>
+          <t>Tenga en cuenta las limitaciones de los objetos de Azure Active Directory</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1196,12 +1161,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>¿Se han registrado los proveedores de recursos requeridos en todas las suscripciones?</t>
+          <t>¿Se han registrado los proveedores de recursos necesarios en todas las suscripciones?</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Es necesario registrar los siguientes proveedores de recursos: Microsoft.HybridCompute, Microsoft.GuestConfiguration, Microsoft.HybridConnectivity</t>
+          <t>Los siguientes proveedores de recursos deben estar registrados: Microsoft.HybridCompute, Microsoft.GuestConfiguration, Microsoft.HybridConnectivity</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1246,12 +1211,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>¿Se ha definido una estrategia de etiquetado para servidores habilitados para Azure Arc?</t>
+          <t>Se ha definido una estrategia de etiquetado para servidores habilitados para Azure Arc.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda alinearse con una estrategia de etiquetado de Azure existente o crearla. Las etiquetas de recursos le permiten localizarlo rápidamente, automatizar tareas operativas y más. </t>
+          <t xml:space="preserve">Se recomienda alinearse con una estrategia de etiquetado de Azure existente o crear una. Las etiquetas de recursos le permiten localizarlo rápidamente, automatizar tareas operativas y más. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1346,12 +1311,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Se requiere software instalado en servidores Windows y Linux para admitir la instalación</t>
+          <t>Son necesarios los programas informáticos instalados en los servidores Windows y Linux para soportar la instalación</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Existen requisitos de software para la instalación del agente. Algunos pueden requerir un reinicio del sistema después de la instalación, revisar para vincular</t>
+          <t>Existen requisitos de software para la instalación del agente. Algunos pueden requerir un reinicio del sistema después de la instalación, revise para vincular</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1492,12 +1457,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Asignación de derechos RBAC al acceso de usuarios o grupos de Azure AD para administrar servidores habilitados para Azure Arc</t>
+          <t>Asignación de derechos RBAC al acceso de usuario o grupo de Azure AD para administrar servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Defina reglas RBAC para los servidores o grupos de recursos según sea necesario para la administración de servidores, el rol 'Administrador de recursos de máquina conectada de Azure' o 'Administrador de recursos de servidor híbrido' sería suficiente para la administración de los recursos de servidores habilitados para Azure Arc en Azure.</t>
+          <t>Defina reglas RBAC para los servidores o grupos de recursos según sea necesario para la administración de servidores, el rol "Administrador de recursos de máquina conectada de Azure" o "Administrador de recursos de servidor híbrido" sería suficiente para la administración de los recursos de servidores habilitados para Azure Arc en Azure</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1542,7 +1507,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar identidades administradas para que las aplicaciones accedan a recursos de Azure, como el ejemplo de Key Vault en el vínculo</t>
+          <t>Considere la posibilidad de usar identidades administradas para que las aplicaciones accedan a los recursos de Azure, como el ejemplo de Key Vault en el vínculo</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1593,7 +1558,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe ser primaria al mismo inquilino de Azure AD</t>
+          <t>Una suscripción de Azure debe estar vinculada al mismo inquilino de Azure AD</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1638,12 +1603,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Definir qué usuarios (usuarios/grupos de AAD) tienen acceso a los servidores habilitados para Azure Arc incorporados</t>
+          <t>Defina qué usuarios (usuarios o grupos de AAD) tienen acceso a los servidores habilitados para Azure Arc incorporados</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Los usuarios (o SPs) necesitan el rol "Incorporación de máquinas conectadas de Azure" o "Colaborador" para la incorporación de servidores</t>
+          <t>Los usuarios (o SP) necesitan el rol "Incorporación de máquinas conectadas de Azure" o "Colaborador" para la incorporación de servidores</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1693,7 +1658,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de agregar solo los derechos a los usuarios o grupos necesarios para desempeñar su función</t>
+          <t>Asegúrese de agregar solo los derechos a los usuarios o grupos necesarios para realizar su rol</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1743,7 +1708,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Se requiere un principio de servicio con el rol 'Azure Connected Machine Onboarding' para la incorporación a escala de servidores, considere más SP si la incorporación la realizan diferentes equipos o administración descentralizada</t>
+          <t>Se requiere un principio de servicio con el rol "Azure Connected Machine Onboarding" para la incorporación a escala de servidores, considere más SP si la incorporación la realizan diferentes equipos o administración descentralizada</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1788,12 +1753,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Limitar los derechos para incorporar servidores habilitados para Azure Arc a los grupos de recursos deseados</t>
+          <t>Limite los derechos para incorporar servidores habilitados para Azure Arc a los grupos de recursos deseados</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de asignar los derechos para el rol 'Azure Connected Machine Onboarding' en el nivel de grupo de recursos, para controlar la creación de recursos.</t>
+          <t>Considere la posibilidad de asignar los derechos del rol "Azure Connected Machine Onboarding" en el nivel de grupo de recursos para controlar la creación de recursos</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1828,7 +1793,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1878,7 +1843,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1888,12 +1853,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Definir una estrategia para las actualizaciones del agente</t>
+          <t>Definir una estrategia para las actualizaciones de agentes</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Update para asegurarse de que el agente del equipo conectado esté siempre actualizado</t>
+          <t>Use Microsoft Update para asegurarse de que el agente de máquina conectada esté siempre actualizado</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1928,7 +1893,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1938,12 +1903,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Definir una estrategia para la instalación de extensiones</t>
+          <t>Definición de una estrategia para la instalación de extensiones</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda usar Azure Policy u otra herramienta de automatización como Azure DevOps; lo importante es evitar la desviación de la configuración.</t>
+          <t>La recomendación es usar Azure Policy u otra herramienta de automatización como Azure DevOps: es importante evitar el desfase de la configuración.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1978,7 +1943,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1988,7 +1953,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Definir una estrategia para las actualizaciones de extensiones</t>
+          <t>Definición de una estrategia para las actualizaciones de extensiones</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -2028,7 +1993,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -2038,12 +2003,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Automanage para controlar la configuración y evitar la desviación de la configuración en los servidores</t>
+          <t>Considere la posibilidad de usar Azure Machine Configuration para controlar la configuración y evitar desviaciones de configuración en los servidores</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure Automanage ayuda a implementar los procedimientos recomendados de Microsoft para la administración de servidores en Azure</t>
+          <t>Configuración de máquina de Azure para ayudar a implementar los procedimientos recomendados de Microsoft para la administración de servidores en Azure</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automanage/automanage-arc</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2077,7 +2042,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -2087,7 +2052,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Supervisar si los agentes no responden</t>
+          <t>Supervisión de agentes que no responden</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2122,7 +2087,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2132,7 +2097,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Diseñar una estrategia de supervisión para enviar métricas y registros a un área de trabajo de Log Analytics</t>
+          <t>Diseño de una estrategia de supervisión para enviar métricas y registros a un área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2167,7 +2132,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2177,7 +2142,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Usar la notificación en los registros de actividad para recibir notificaciones sobre cambios inesperados en los recursos</t>
+          <t>Use la notificación en los registros de actividad para recibir notificaciones sobre cambios inesperados en los recursos</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2212,7 +2177,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2257,7 +2222,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2303,7 +2268,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2313,12 +2278,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Uso de servidores habilitados para Azure Arc para controlar las implementaciones de actualizaciones de software en servidores</t>
+          <t>Uso de servidores habilitados para Azure Arc para controlar las implementaciones de actualizaciones de software en los servidores</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Use Update Management en Automatización de Azure o la nueva funcionalidad del Centro de administración de actualizaciones (versión preliminar) para garantizar la administración de actualizaciones de los servidores</t>
+          <t>Use Azure Update Manager para administrar y programar actualizaciones a gran escala en los servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2334,7 +2299,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/hybrid/server/best-practices/arc-update-management</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview%2Cwindows-maintenance</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2413,7 +2378,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>¿Se requiere un servidor proxy para la comunicación a través de la Internet pública?</t>
+          <t>¿Es necesario un servidor proxy para la comunicación a través de la Internet pública?</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
@@ -2468,7 +2433,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>El agente de máquina conectada puede usar un vínculo privado para comunicarse con Servicios de Azure a través de una conexión ExpressRoute o VPN existente</t>
+          <t>El agente de máquina conectada puede usar un vínculo privado para la comunicación con los servicios de Azure a través de una conexión ExpressRoute o VPN existente</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2518,7 +2483,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Es posible que se requiera la configuración del firewall para que el agente se comunique con Azure, use el vínculo para ver ServiceTags y/o URL requeridas</t>
+          <t>Es posible que se requiera la configuración del firewall para que el agente se comunique con Azure, use el vínculo para ver las ServiceTags o las direcciones URL requeridas</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2613,12 +2578,12 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use siempre que sea posible la comunicación segura para Azure siempre que sea posible</t>
+          <t>Utilice siempre que sea posible una comunicación segura para Azure</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Configurar servidores para utilizar Seguridad de la capa de transporte (TLS) versión 1.2</t>
+          <t>Configurar servidores para usar la versión 1.2 de Seguridad de la capa de transporte (TLS)</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2668,7 +2633,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Todas las extensiones (como el análisis de registros, etc.) tienen requisitos de red separados, asegúrese de incluir todas en el diseño de la red.</t>
+          <t>Todas las extensiones (como Log Analytics, etc.) tienen requisitos de red separados, asegúrese de incluirlos todos en el diseño de la red.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para implementar un modelo de gobierno para servidores híbridos conectados</t>
+          <t>Uso de Azure Policy para implementar un modelo de gobernanza para servidores híbridos conectados</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2805,7 +2770,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Evaluar la necesidad de directivas de configuración de invitados personalizadas</t>
+          <t>Evalúe la necesidad de directivas de configuración de invitado personalizadas</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2851,7 +2816,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar el seguimiento de cambios para realizar un seguimiento de los cambios realizados en los servidores</t>
+          <t>Considere la posibilidad de usar el seguimiento de cambios para realizar un seguimiento de los cambios realizados en los servidores</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2942,7 +2907,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para la administración de certificados en servidores</t>
+          <t>Uso de Azure Key Vault para la administración de certificados en servidores</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2988,12 +2953,12 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>¿Cuál es el tiempo de vida aceptable del secreto utilizado por los SP?</t>
+          <t>¿Cuál es el tiempo de vida aceptable del secreto utilizado por los SP's?</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar secretos de cliente de entidad de seguridad de servicio de Azure AD de corta duración.</t>
+          <t>Considere la posibilidad de usar secretos de cliente de entidad de servicio de Azure AD de corta duración.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3087,12 +3052,12 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que hay acceso de administrador local para ejecutar la instalación del agente</t>
+          <t>Asegúrese de que haya acceso de administrador local para ejecutar la instalación del agente</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Se requiere un administrador local para instalar el Agente de máquina conectada en sistemas Windows y Linux</t>
+          <t>Se requiere un administrador local para instalar Connected Machine Agent en sistemas Windows y Linux</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3136,7 +3101,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Limitar la cantidad de usuarios con derechos de administrador local a los servidores</t>
+          <t>Limitar el número de usuarios con derechos de administrador local en los servidores</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
@@ -3186,7 +3151,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar y restringir el acceso a identidades administradas para aplicaciones.</t>
+          <t>Considere la posibilidad de usar y restringir el acceso a las identidades administradas para las aplicaciones.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3232,12 +3197,12 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Servers para todos los servidores para proteger las cargas de trabajo híbridas de las amenazas</t>
+          <t>Habilitación de Defender para servidores para que todos los servidores protejan las cargas de trabajo híbridas frente a amenazas</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Utilice Defender for Endpoint u otra solución AV y EDR para proteger los endpoints</t>
+          <t>Use Defender para punto de conexión u otra solución de AV y EDR para proteger los puntos de conexión</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3282,7 +3247,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Definir controles para detectar configuraciones incorrectas de seguridad y realizar un seguimiento del cumplimiento</t>
+          <t>Defina controles para detectar errores de configuración de seguridad y realizar un seguimiento del cumplimiento</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3323,7 +3288,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Uso de listas de permitidos o bloqueados para controlar qué extensiones se pueden instalar en los servidores habilitados para Azure Arc</t>
+          <t>Use listas de permitidos o bloqueados para controlar qué extensiones se pueden instalar en los servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -7193,20 +7158,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -7216,121 +7279,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7494,7 +7442,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7516,7 +7464,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7533,7 +7481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Gestión y Seguimiento</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
